--- a/biology/Biochimie/Edwin_G._Krebs/Edwin_G._Krebs.xlsx
+++ b/biology/Biochimie/Edwin_G._Krebs/Edwin_G._Krebs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwin Gerhard Krebs, né le 6 juin 1918 à Lansing (Iowa) et mort le 21 décembre 2009 à Seattle, est un biochimiste américain. Il reçoit le prix Nobel de physiologie ou médecine en 1992 avec Edmond Fischer pour sa découverte de la phosphorylation réversible des protéines. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edwin G. Krebs est né à Lansing, Iowa, troisième enfant de William Carl Krebs, pasteur presbytérien et de Louise Helen (Stegeman) Krebs. La famille déménagea fréquemment à cause de la nature du travail de son père. Cependant, ils s'installèrent à Greenville, dans l'Illinois, à l'âge de six ans. Ils y restèrent jusqu'à la mort inattendue de son père, en 1933. Louise Krebs décida de déménager sa famille à Urbana, en Illinois, où l'aîné de Krebs. les frères fréquentaient l'université de l'Illinois à Urbana-Champaign. Krebs fréquenta l'Urbana High School et s'inscrivit à l'université de l'Illinois à Urbana-Champaign en 1936. Au cours de sa quatrième année d'études, Krebs avait décidé de poursuivre des études en chimie organique ou en médecine. Bénéficiant d'une bourse pour étudier à la Washington University School of Medicine de St. Louis, il choisit cette dernière.
 La Faculté de médecine a donné à Krebs l'occasion de se former en tant que médecin et d'acquérir de l'expérience en recherche médicale. Après avoir obtenu son diplôme en 1943, il entreprit une résidence de 18 mois à l'hôpital Barnes de Saint-Louis, puis passa au service actif en tant que médecin militaire dans la marine. Krebs quitta la marine en 1946 et fut incapable de retourner immédiatement au travail à l'hôpital. il lui fut conseillé d'étudier les sciences fondamentales à la place. Il a choisi d'étudier la biochimie et a été boursier postdoctoral de Carl et Gerty Cori, travaillant sur l'interaction de la protamine avec la phosphorylase du muscle du lapin. À l'issue de ses deux ans d'études, Krebs a décidé de poursuivre sa carrière de biochimiste.
@@ -543,9 +557,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1979 : docteur honoris causa de l'université de Genève[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1979 : docteur honoris causa de l'université de Genève.
 1992 : prix Nobel de physiologie ou médecine
 1993 : nommé membre étranger de l'Académie royale de médecine de Belgique.</t>
         </is>
